--- a/medicine/Médecine vétérinaire/Pierre_Montlaur_(auteur)/Pierre_Montlaur_(auteur).xlsx
+++ b/medicine/Médecine vétérinaire/Pierre_Montlaur_(auteur)/Pierre_Montlaur_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Montlaur est un auteur français né à Escales (Aude) le 27 septembre 1927, mort à Toulouse (Haute-Garonne) le 19 avril 1988.
 Ce vétérinaire avicole passionné par l'histoire de l'Égypte antique a effectué plusieurs voyages dans ce pays. Ses romans ont pour sujet trois périodes de l'Égypte antique (Imhotep pour l'Ancien Empire, Nitocris pour la Première Période intermédiaire et Iosseph pour le Moyen Empire).
@@ -514,7 +526,9 @@
           <t>Parcours égyptologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En sixième, il est fasciné par les hiéroglyphes et les Bas-reliefs égyptiens. Cette idée de dessiner des yeux de face dans un profil lui parait extraordinaire.
 À la fin des années 1970, il effectue un voyage en Égypte. À son retour, il dévore tous les livres sur l'Antiquité. Plus tard, il entreprend l'étude des hiéroglyphes, y consacrant une heure par jour pendant quatre ans.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nitocris, la dame de Memphis, Albin Michel, 1985  (ISBN 2226022740) ;
 Imhotep, le mage du Nil, Albin Michel, 1985  (ISBN 2226019871) ;
